--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB1DE9-61EA-4C25-A31E-DA507B16DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF17BA2-364D-487F-B88C-7270E056C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="735">
   <si>
     <t>Sleep</t>
   </si>
@@ -2479,7 +2479,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -2608,394 +2608,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF954ECA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBBBDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC67474"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3E9BF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA93971"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA93971"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3E9BF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC67474"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBBBDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF954ECA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA93971"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3E9BF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC67474"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBBBDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF954ECA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3325,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3550,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" ref="N9:N28" si="0">M9/L9</f>
+        <f t="shared" ref="N9:N26" si="0">M9/L9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="22" t="str">
@@ -3558,7 +3170,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3791,11 +3403,11 @@
       </c>
       <c r="M15" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="Q15" s="22"/>
       <c r="R15" s="27" t="str">
@@ -4321,11 +3933,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>1.0355029585798817E-2</v>
+        <v>1.3313609467455622E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -7524,8 +7136,8 @@
       <c r="E189" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F189" s="6">
-        <v>0</v>
+      <c r="F189" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -7784,8 +7396,8 @@
       <c r="E202" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F202" s="6">
-        <v>0</v>
+      <c r="F202" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -17362,12 +16974,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7B243-4A1E-44C3-B8AB-7381CB16F16D}">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F261" sqref="F261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
@@ -20370,7 +19985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -20387,7 +20002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -20404,7 +20019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -20421,7 +20036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -20438,7 +20053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20455,7 +20070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20472,7 +20087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20489,7 +20104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20506,7 +20121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20523,7 +20138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20540,7 +20155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20557,7 +20172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20574,7 +20189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20590,8 +20205,11 @@
       <c r="E189" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -20608,7 +20226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -20625,7 +20243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -20642,7 +20260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -20659,7 +20277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -20676,7 +20294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -20693,7 +20311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -20710,7 +20328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -20727,7 +20345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -20744,7 +20362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -20761,7 +20379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -20778,7 +20396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -20795,7 +20413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -20811,8 +20429,11 @@
       <c r="E202" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -20829,7 +20450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20846,7 +20467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20863,7 +20484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20880,7 +20501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -20897,7 +20518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF17BA2-364D-487F-B88C-7270E056C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC7E6FD-853E-44A8-A53F-4312A44CAFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2266,6 +2266,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Duuv</t>
   </si>
 </sst>
 </file>
@@ -2937,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3126,7 +3129,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
       <c r="Q8" s="15" t="str" cm="1">
-        <f t="array" ref="Q8:Q10">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F:F),_xlfn.UNIQUE(F:F)&lt;&gt;0)</f>
+        <f t="array" ref="Q8:Q11">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F:F),_xlfn.UNIQUE(F:F)&lt;&gt;0)</f>
         <v>Author</v>
       </c>
       <c r="R8" s="26"/>
@@ -3147,8 +3150,8 @@
       <c r="E9" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
+      <c r="F9" s="6" t="str">
+        <v>Sipondo</v>
       </c>
       <c r="K9" s="18" t="str">
         <v>BUG</v>
@@ -3159,18 +3162,18 @@
       </c>
       <c r="M9" s="19">
         <f>COUNTIFS($F:$F,"&lt;&gt;",$F:$F,"&lt;&gt;0",$D:$D, K9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" ref="N9:N26" si="0">M9/L9</f>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="Q9" s="22" t="str">
         <v>Sipondo</v>
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3201,18 +3204,18 @@
       </c>
       <c r="M10" s="19">
         <f t="shared" ref="M10:M26" si="2">COUNTIFS($F:$F,"&lt;&gt;",$F:$F,"&lt;&gt;0",$D:$D, K10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="Q10" s="22" t="str">
-        <v>Piadith</v>
+        <v>Duuv</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" ref="R10:R26" si="3">IF(Q10&lt;&gt;"",COUNTIF(F:F,Q10),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -3243,16 +3246,18 @@
       </c>
       <c r="M11" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="27" t="str">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q11" s="22" t="str">
+        <v>Piadith</v>
+      </c>
+      <c r="R11" s="27">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -3311,8 +3316,8 @@
       <c r="E13" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
+      <c r="F13" s="6" t="str">
+        <v>Sipondo</v>
       </c>
       <c r="K13" s="18" t="str">
         <v>FAIRY</v>
@@ -3933,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>1.3313609467455622E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -4056,8 +4061,8 @@
       <c r="E35" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F35" s="6">
-        <v>0</v>
+      <c r="F35" s="6" t="str">
+        <v>Duuv</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,8 +4961,8 @@
       <c r="E80" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F80" s="6">
-        <v>0</v>
+      <c r="F80" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -16975,8 +16980,8 @@
   <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17139,6 +17144,9 @@
       <c r="E9" t="s">
         <v>46</v>
       </c>
+      <c r="F9" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -17207,6 +17215,9 @@
       <c r="E13" t="s">
         <v>46</v>
       </c>
+      <c r="F13" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -17531,7 +17542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17548,7 +17559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17565,7 +17576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17581,8 +17592,11 @@
       <c r="E35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17599,7 +17613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17616,7 +17630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17633,7 +17647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17650,7 +17664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17667,7 +17681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17684,7 +17698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17701,7 +17715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17718,7 +17732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17735,7 +17749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17752,7 +17766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17769,7 +17783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17786,7 +17800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18075,7 +18089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18092,7 +18106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18109,7 +18123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18126,7 +18140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18143,7 +18157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18160,7 +18174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18177,7 +18191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18194,7 +18208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18211,7 +18225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18228,7 +18242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18245,7 +18259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18262,7 +18276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18279,7 +18293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18296,7 +18310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18313,7 +18327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18330,7 +18344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18345,6 +18359,9 @@
       </c>
       <c r="E80" t="s">
         <v>47</v>
+      </c>
+      <c r="F80" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7CB94-8A21-4AAC-BFCA-6B1116D09129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A211036-C25A-44D7-8010-1462328A6DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" activeTab="2" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="M14" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>3.1065088757396449E-2</v>
+        <v>3.4023668639053255E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -6221,8 +6221,8 @@
       <c r="E143" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F143" s="6">
-        <v>0</v>
+      <c r="F143" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -6481,8 +6481,8 @@
       <c r="E156" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F156" s="6">
-        <v>0</v>
+      <c r="F156" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -16980,8 +16980,8 @@
   <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I242" sqref="I242"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19189,7 +19189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -19443,8 +19443,11 @@
       <c r="E143" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -19461,7 +19464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -19478,7 +19481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -19495,7 +19498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -19512,7 +19515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -19529,7 +19532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -19546,7 +19549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -19563,7 +19566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -19580,7 +19583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19597,7 +19600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19614,7 +19617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19631,7 +19634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19648,7 +19651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -19664,8 +19667,11 @@
       <c r="E156" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -19682,7 +19688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -19699,7 +19705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -19716,7 +19722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -28573,7 +28579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A273E7-C727-4778-854F-09F5DD9153D5}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A211036-C25A-44D7-8010-1462328A6DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1582D73-8F83-4EB5-8FA9-9FC803CD7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" activeTab="1" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="F534" sqref="F534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="M22" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>3.4023668639053255E-2</v>
+        <v>3.6982248520710061E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -13901,8 +13901,8 @@
       <c r="E527" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F527" s="6">
-        <v>0</v>
+      <c r="F527" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -13981,8 +13981,8 @@
       <c r="E531" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F531" s="6">
-        <v>0</v>
+      <c r="F531" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -16979,9 +16979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7B243-4A1E-44C3-B8AB-7381CB16F16D}">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G534" sqref="G533:H534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25753,7 +25753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -25770,7 +25770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -25787,7 +25787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -25889,7 +25889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -25906,7 +25906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -25940,7 +25940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -25957,7 +25957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -25974,7 +25974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -26007,8 +26007,11 @@
       <c r="E527" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F527" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -26025,7 +26028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -26042,7 +26045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -26059,7 +26062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -26075,8 +26078,11 @@
       <c r="E531" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F531" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -26093,7 +26099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -26110,7 +26116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -26127,7 +26133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -26144,7 +26150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -26161,7 +26167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -26178,7 +26184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -26195,7 +26201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -26212,7 +26218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -26229,7 +26235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -26246,7 +26252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -26263,7 +26269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -26280,7 +26286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1582D73-8F83-4EB5-8FA9-9FC803CD7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED64A8-28BF-47FB-92EF-DB3674161F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" activeTab="1" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="F534" sqref="F534"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="J312" sqref="J312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="M19" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>3.6982248520710061E-2</v>
+        <v>3.9940828402366867E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -9281,8 +9281,8 @@
       <c r="E296" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F296" s="6">
-        <v>0</v>
+      <c r="F296" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -9521,8 +9521,8 @@
       <c r="E308" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F308" s="6">
-        <v>0</v>
+      <c r="F308" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -16979,9 +16979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7B243-4A1E-44C3-B8AB-7381CB16F16D}">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G534" sqref="G533:H534"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21933,7 +21933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -22001,7 +22001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -22052,7 +22052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -22068,8 +22068,11 @@
       <c r="E296" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -22103,7 +22106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -22120,7 +22123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -22137,7 +22140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -22154,7 +22157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -22171,7 +22174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -22188,7 +22191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -22205,7 +22208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -22222,7 +22225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -22239,7 +22242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -22256,7 +22259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22272,8 +22275,11 @@
       <c r="E308" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22290,7 +22296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22307,7 +22313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22324,7 +22330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22341,7 +22347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22358,7 +22364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22375,7 +22381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22392,7 +22398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -22409,7 +22415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -22426,7 +22432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -22443,7 +22449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -22460,7 +22466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED64A8-28BF-47FB-92EF-DB3674161F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB73D15-8933-4954-B7E6-858A18FD59D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" activeTab="1" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="J312" sqref="J312"/>
+    <sheetView topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="F553" sqref="F553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3728,11 +3728,11 @@
       </c>
       <c r="M23" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q23" s="22"/>
       <c r="R23" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>3.9940828402366867E-2</v>
+        <v>4.2899408284023666E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -14421,8 +14421,8 @@
       <c r="E553" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F553" s="6">
-        <v>0</v>
+      <c r="F553" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -14601,8 +14601,8 @@
       <c r="E562" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F562" s="6">
-        <v>0</v>
+      <c r="F562" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
@@ -16979,9 +16979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7B243-4A1E-44C3-B8AB-7381CB16F16D}">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G296" sqref="G296"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G553" sqref="G553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26309,7 +26309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -26360,7 +26360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -26377,7 +26377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -26394,7 +26394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -26411,7 +26411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -26428,7 +26428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -26461,8 +26461,11 @@
       <c r="E553" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F553" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -26479,7 +26482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -26496,7 +26499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -26513,7 +26516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -26530,7 +26533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -26547,7 +26550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -26564,7 +26567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -26581,7 +26584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -26598,7 +26601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>561</v>
       </c>
@@ -26614,8 +26617,11 @@
       <c r="E562" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F562" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>562</v>
       </c>
@@ -26632,7 +26638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>563</v>
       </c>
@@ -26649,7 +26655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>564</v>
       </c>
@@ -26666,7 +26672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>565</v>
       </c>
@@ -26683,7 +26689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>566</v>
       </c>
@@ -26700,7 +26706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>567</v>
       </c>
@@ -26717,7 +26723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>568</v>
       </c>
@@ -26734,7 +26740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>569</v>
       </c>
@@ -26751,7 +26757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>570</v>
       </c>
@@ -26768,7 +26774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>571</v>
       </c>
@@ -26785,7 +26791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>572</v>
       </c>
@@ -26802,7 +26808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>573</v>
       </c>
@@ -26819,7 +26825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>574</v>
       </c>
@@ -26836,7 +26842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>575</v>
       </c>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB73D15-8933-4954-B7E6-858A18FD59D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A787F83-D259-4954-8B7A-E0682855C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" activeTab="1" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="F553" sqref="F553"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="F628" sqref="F628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3808,11 +3808,11 @@
       </c>
       <c r="M25" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q25" s="22"/>
       <c r="R25" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>4.2899408284023666E-2</v>
+        <v>4.5857988165680472E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -15921,8 +15921,8 @@
       <c r="E628" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F628" s="6">
-        <v>0</v>
+      <c r="F628" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.3">
@@ -16081,8 +16081,8 @@
       <c r="E636" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F636" s="6">
-        <v>0</v>
+      <c r="F636" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.3">
@@ -16979,9 +16979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7B243-4A1E-44C3-B8AB-7381CB16F16D}">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G553" sqref="G553"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I639" sqref="I639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27681,7 +27681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>624</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>625</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>626</v>
       </c>
@@ -27732,7 +27732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>627</v>
       </c>
@@ -27748,8 +27748,11 @@
       <c r="E628" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F628" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>628</v>
       </c>
@@ -27766,7 +27769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>629</v>
       </c>
@@ -27783,7 +27786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>630</v>
       </c>
@@ -27800,7 +27803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>631</v>
       </c>
@@ -27817,7 +27820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>632</v>
       </c>
@@ -27834,7 +27837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>633</v>
       </c>
@@ -27851,7 +27854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>634</v>
       </c>
@@ -27868,7 +27871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>635</v>
       </c>
@@ -27884,8 +27887,11 @@
       <c r="E636" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F636" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>636</v>
       </c>
@@ -27902,7 +27908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>637</v>
       </c>
@@ -27919,7 +27925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>638</v>
       </c>
@@ -27936,7 +27942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>639</v>
       </c>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A787F83-D259-4954-8B7A-E0682855C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54C945-116A-4E47-89C9-3035763A1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="F628" sqref="F628"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="M11" s="19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q11" s="22" t="str">
         <v>Piadith</v>
@@ -3328,11 +3328,11 @@
       </c>
       <c r="M13" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="27" t="str">
@@ -3448,11 +3448,11 @@
       </c>
       <c r="M16" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>4.5857988165680472E-2</v>
+        <v>5.3254437869822487E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -4841,8 +4841,8 @@
       <c r="E74" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F74" s="6">
-        <v>0</v>
+      <c r="F74" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5661,8 +5661,8 @@
       <c r="E115" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F115" s="6">
-        <v>0</v>
+      <c r="F115" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -5721,8 +5721,8 @@
       <c r="E118" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F118" s="6">
-        <v>0</v>
+      <c r="F118" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -7581,8 +7581,8 @@
       <c r="E211" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F211" s="6">
-        <v>0</v>
+      <c r="F211" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -7861,8 +7861,8 @@
       <c r="E225" s="6" t="str">
         <v>Special</v>
       </c>
-      <c r="F225" s="6">
-        <v>0</v>
+      <c r="F225" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -16980,8 +16980,8 @@
   <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I639" sqref="I639"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18261,6 +18261,9 @@
       <c r="E74" t="s">
         <v>43</v>
       </c>
+      <c r="F74" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -18917,7 +18920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -18934,7 +18937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -18951,7 +18954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -18967,8 +18970,11 @@
       <c r="E115" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -18985,7 +18991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19002,7 +19008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19018,8 +19024,11 @@
       <c r="E118" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19036,7 +19045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19053,7 +19062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -19070,7 +19079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -19087,7 +19096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -19104,7 +19113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -19121,7 +19130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -19138,7 +19147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -19155,7 +19164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -19172,7 +19181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -20561,7 +20570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -20578,7 +20587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -20595,7 +20604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -20611,8 +20620,11 @@
       <c r="E211" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -20629,7 +20641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -20646,7 +20658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -20663,7 +20675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -20680,7 +20692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -20697,7 +20709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -20714,7 +20726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -20731,7 +20743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -20748,7 +20760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -20765,7 +20777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -20782,7 +20794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -20799,7 +20811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -20816,7 +20828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -20848,6 +20860,9 @@
       </c>
       <c r="E225" t="s">
         <v>43</v>
+      </c>
+      <c r="F225" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\pokejets\ulix-dexflow\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54C945-116A-4E47-89C9-3035763A1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8BAAB9-7478-4007-9B5E-4AF122AC24D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="672" windowWidth="22872" windowHeight="12216" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack move" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2941,7 +2941,7 @@
   <dimension ref="A1:R677"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R9" s="27">
         <f>IF(Q9&lt;&gt;"",COUNTIF(F:F,Q9),"")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3648,11 +3648,11 @@
       </c>
       <c r="M21" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="0"/>
-        <v>1.1299435028248588E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>5.3254437869822487E-2</v>
+        <v>5.473372781065089E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -10621,8 +10621,8 @@
       <c r="E363" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F363" s="6">
-        <v>0</v>
+      <c r="F363" s="6" t="str">
+        <v>Sipondo</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -16980,8 +16980,8 @@
   <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G364" sqref="G364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23048,7 +23048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -23167,7 +23167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -23234,8 +23234,11 @@
       <c r="E363" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -23252,7 +23255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -23269,7 +23272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -23286,7 +23289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -23303,7 +23306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>

--- a/resources/base/particle/_Moves.xlsx
+++ b/resources/base/particle/_Moves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duver\Documents\Anime &amp; Games\Pokémon\Ulix-dexflow pokegame repository\resources\base\particle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF69F8A-7D5A-4738-8392-15E9A9F4B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C795541-5D59-4D60-B9DB-816E8187C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80E0F31D-A046-4CD3-826F-B4034176B7E3}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="736">
   <si>
     <t>Sleep</t>
   </si>
@@ -2940,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB474F78-426D-432A-A4CC-F5C23881488B}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="R10" s="27">
         <f t="shared" ref="R10:R26" si="3">IF(Q10&lt;&gt;"",COUNTIF(F:F,Q10),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3528,11 +3528,11 @@
       </c>
       <c r="M18" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="0"/>
-        <v>4.878048780487805E-2</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="27" t="str">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M29" s="24">
         <f>SUM(M9:M26)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29" s="25">
         <f>M29/L29</f>
-        <v>5.473372781065089E-2</v>
+        <v>5.6213017751479293E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -8821,8 +8821,8 @@
       <c r="E273" s="6" t="str">
         <v>Physical</v>
       </c>
-      <c r="F273" s="6">
-        <v>0</v>
+      <c r="F273" s="6" t="str">
+        <v>Raduviant</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -16980,8 +16980,8 @@
   <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G364" sqref="G364"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21676,7 +21676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -21692,8 +21692,11 @@
       <c r="E273" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -21710,7 +21713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -21727,7 +21730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21744,7 +21747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21761,7 +21764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21778,7 +21781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21795,7 +21798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21812,7 +21815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21829,7 +21832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21846,7 +21849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -21863,7 +21866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -21880,7 +21883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -21897,7 +21900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -21914,7 +21917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -21931,7 +21934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
